--- a/data/outputs/management/47.xlsx
+++ b/data/outputs/management/47.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ74"/>
+  <dimension ref="A1:BR74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -903,6 +908,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1124,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>3031426</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1333,6 +1344,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>3790082</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1552,6 +1568,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1751,6 +1768,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1958,6 +1976,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2165,6 +2184,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2364,6 +2384,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2567,6 +2588,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2762,6 +2784,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2957,6 +2980,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3160,6 +3184,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3371,6 +3396,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3566,6 +3592,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3769,6 +3796,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3948,6 +3976,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4135,6 +4164,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4342,6 +4372,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4386516</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4541,6 +4576,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4736,6 +4772,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4314111</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4927,6 +4968,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5126,6 +5168,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>50401388</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5325,6 +5372,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4173614</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5504,6 +5556,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5699,6 +5752,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5894,6 +5948,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4164410</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6101,6 +6160,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6296,6 +6356,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6499,6 +6560,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4018640</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6702,6 +6768,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6897,6 +6964,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>6945937</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7100,6 +7172,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3907269</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7295,6 +7372,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>10942199</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7490,6 +7572,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7693,6 +7776,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7892,6 +7976,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8087,6 +8172,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4820160</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8282,6 +8372,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8477,6 +8568,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8668,6 +8760,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8863,6 +8956,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9054,6 +9148,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9257,6 +9352,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9452,6 +9548,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9651,6 +9748,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9850,6 +9948,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10049,6 +10148,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>2170928</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10244,6 +10348,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10451,6 +10556,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10646,6 +10752,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10841,6 +10948,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11048,6 +11156,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11243,6 +11352,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>2122086</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11442,6 +11556,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>55402850</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11641,6 +11760,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>2223077</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11828,6 +11952,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3768176</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12027,6 +12156,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3765573</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12234,6 +12368,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12409,6 +12544,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>6683488</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12608,6 +12748,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12803,6 +12944,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12998,6 +13140,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>22236265</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13185,6 +13332,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13380,6 +13528,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13575,6 +13724,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13770,6 +13920,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13969,6 +14120,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14164,6 +14316,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14359,6 +14512,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14558,6 +14712,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14753,6 +14908,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14956,6 +15112,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15155,6 +15312,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
